--- a/data/22-08-2025-rings-export.xlsx
+++ b/data/22-08-2025-rings-export.xlsx
@@ -915,7 +915,7 @@
         <v>45880</v>
       </c>
       <c r="I7" s="10">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -944,7 +944,7 @@
         <v>45880</v>
       </c>
       <c r="I8" s="6">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>45880</v>
       </c>
       <c r="I9" s="10">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>45880</v>
       </c>
       <c r="I10" s="6">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>45880</v>
       </c>
       <c r="I11" s="10">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
         <v>45880</v>
       </c>
       <c r="I12" s="6">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
         <v>45880</v>
       </c>
       <c r="I13" s="10">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
         <v>45880</v>
       </c>
       <c r="I14" s="6">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
         <v>45880</v>
       </c>
       <c r="I15" s="10">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1176,7 +1176,7 @@
         <v>45880</v>
       </c>
       <c r="I16" s="6">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>45880</v>
       </c>
       <c r="I17" s="10">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
         <v>45880</v>
       </c>
       <c r="I18" s="6">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>45880</v>
       </c>
       <c r="I19" s="10">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1292,7 +1292,7 @@
         <v>45880</v>
       </c>
       <c r="I20" s="6">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
         <v>45880</v>
       </c>
       <c r="I21" s="10">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
         <v>45880</v>
       </c>
       <c r="I22" s="6">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1379,7 +1379,7 @@
         <v>45880</v>
       </c>
       <c r="I23" s="10">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1408,7 +1408,7 @@
         <v>45880</v>
       </c>
       <c r="I24" s="6">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>45880</v>
       </c>
       <c r="I25" s="10">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>45880</v>
       </c>
       <c r="I26" s="6">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>45880</v>
       </c>
       <c r="I27" s="10">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
         <v>45880</v>
       </c>
       <c r="I28" s="6">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1553,7 +1553,7 @@
         <v>45880</v>
       </c>
       <c r="I29" s="10">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
         <v>45880</v>
       </c>
       <c r="I30" s="6">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
         <v>45880</v>
       </c>
       <c r="I31" s="10">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
         <v>45880</v>
       </c>
       <c r="I32" s="6">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>45880</v>
       </c>
       <c r="I33" s="14">
-        <v>45890.66447417824</v>
+        <v>45891.51599925926</v>
       </c>
     </row>
   </sheetData>
